--- a/biology/Zoologie/Bungarus_sindanus/Bungarus_sindanus.xlsx
+++ b/biology/Zoologie/Bungarus_sindanus/Bungarus_sindanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bungarus sindanus est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bungarus sindanus est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Népal et au Pakistan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Népal et au Pakistan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 mai 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 mai 2015) :
 Bungarus sindanus sindanus Boulenger, 1897
 Bungarus sindanus walli Wall,  1907</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1897 : A new krait from Sind (Bungarus sindanus). Journal of the Bombay Natural History Society, vol. 11, p. 73-74 (texte intégral).
 Khan, 1985 : Taxonomic notes on Bungarus caeruleus (Schneider) and Bungarus sindanus Boulenger. The Snake, vol. 17, p. 71-78.
